--- a/canada/7.ontario/mississauga/12-on-auto-electric-service.xlsx
+++ b/canada/7.ontario/mississauga/12-on-auto-electric-service.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>Business URL</t>
   </si>
@@ -67,6 +67,87 @@
     <t>https://www.bbb.org/ca/on/port-perry/profile/auto-repair/precision-auto-electric-ltd-0107-1163448</t>
   </si>
   <si>
+    <t>https://www.bbb.org/ca/on/etobicoke/profile/auto-repair/active-green-ross-0107-1227382</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/auto-repair/art-quiggs-service-corp-0187-1046347</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/st-catharines/profile/auto-electric-service/commercial-auto-electric-limited-0107-1257439</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/gravenhurst/profile/surfboard/create-your-wave-0117-252282</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/auto-services/automotive-solutions-0187-1045615</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/mississauga/profile/auto-diagnosis/xemodex-inc-0107-1293237</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/new-car-dealers/leavens-volkswagen-inc-0187-768</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/new-car-dealers/probart-mazda-0187-14318</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/scarborough/profile/auto-electric-service/canadian-auto-electric-constant-velocity-drives-inc-0107-1231326</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/mississauga/profile/auto-electric-service/mr-alternator-starter-rebuilding-ltd-0107-1033508</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/cambridge/profile/auto-electric-service/mitchell-starter-alternator-0107-12177</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/peterborough/profile/car-dealers/peterborough-mitsubishi-0117-243003</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/st-thomas/profile/tire-dealers/elgin-tirecraft-0187-1048984</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/aylmer/profile/auto-repair/aylmer-tire-0187-1055924</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/verona/profile/auto-renting-and-leasing/revell-motor-sales-ltd-0117-35947</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/auto-repair/vip-napa-autopro-0187-1048309</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/parry-sound/profile/auto-repair/georgian-automotive-service-0117-62103</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/chesley/profile/auto-maintenance/bluewater-auto-and-tire-service-0107-1041698</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/auto-repair/london-automotive-services-0187-1042798</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/inglewood/profile/auto-electric-service/wallys-auto-electric-0107-1177114</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/kitchener/profile/auto-electric-service/highland-starter-alternator-0107-19463</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/kingston/profile/car-dealers/paulette-auto-sales-ltd-0117-62620</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/oshawa/profile/auto-electric-equipment/av-mobile-electronics-inc-0107-1153566</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/unionville/profile/auto-electric-service/jc-autosports-0107-1227756</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/wallenstein/profile/auto-electric-service/lals-auto-electric-0107-19948</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/kitchener/profile/auto-electric-service/kitchener-starter-alternator-ltd-0107-752</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/auto-electric-service/johnnys-auto-electric-0187-711</t>
+  </si>
+  <si>
     <t>Rick's Automotive (Woodstock)</t>
   </si>
   <si>
@@ -98,6 +179,87 @@
   </si>
   <si>
     <t>Precision Auto Electric Ltd.</t>
+  </si>
+  <si>
+    <t>Active Green + Ross</t>
+  </si>
+  <si>
+    <t>Art Quigg's Service Corp</t>
+  </si>
+  <si>
+    <t>Commercial Auto Electric Limited</t>
+  </si>
+  <si>
+    <t>Create Your Wave</t>
+  </si>
+  <si>
+    <t>Automotive Solutions</t>
+  </si>
+  <si>
+    <t>Xemodex Inc</t>
+  </si>
+  <si>
+    <t>Leavens Volkswagen Inc.</t>
+  </si>
+  <si>
+    <t>Probart Mazda</t>
+  </si>
+  <si>
+    <t>Canadian Auto Electric &amp; Constant Velocity Drives Inc.</t>
+  </si>
+  <si>
+    <t>Mr Alternator &amp; Starter Rebuilding Ltd</t>
+  </si>
+  <si>
+    <t>Mitchell Starter Alternator</t>
+  </si>
+  <si>
+    <t>Peterborough Mitsubishi</t>
+  </si>
+  <si>
+    <t>Elgin Tirecraft</t>
+  </si>
+  <si>
+    <t>Aylmer Tire</t>
+  </si>
+  <si>
+    <t>Revell Motor Sales Ltd</t>
+  </si>
+  <si>
+    <t>VIP NAPA AutoPro</t>
+  </si>
+  <si>
+    <t>Georgian Automotive Service</t>
+  </si>
+  <si>
+    <t>Bluewater Auto And Tire Service</t>
+  </si>
+  <si>
+    <t>London Automotive Services</t>
+  </si>
+  <si>
+    <t>Wally's Auto Electric</t>
+  </si>
+  <si>
+    <t>Highland Starter &amp; Alternator</t>
+  </si>
+  <si>
+    <t>Paulette Auto Sales LTD.</t>
+  </si>
+  <si>
+    <t>AV Mobile Electronics Inc.</t>
+  </si>
+  <si>
+    <t>JC Autosports</t>
+  </si>
+  <si>
+    <t>Lal's Auto Electric</t>
+  </si>
+  <si>
+    <t>Kitchener Starter &amp; Alternator Ltd</t>
+  </si>
+  <si>
+    <t>Johnny's Auto Electric</t>
   </si>
   <si>
     <t>105 Ingersoll Road
@@ -144,6 +306,113 @@
 Port Perry, ON L9L 1G3</t>
   </si>
   <si>
+    <t>104 Rexdale Blvd
+Etobicoke, ON M9P 1P5</t>
+  </si>
+  <si>
+    <t>2-1855 Oxford St. E.
+London, ON N5V 2Z6</t>
+  </si>
+  <si>
+    <t>135 Cushman Rd
+St Catharines, ON L2M 6T2</t>
+  </si>
+  <si>
+    <t>Gravenhurst, ON P4P 1A5</t>
+  </si>
+  <si>
+    <t>818 Cabell St
+London, ON N5Z 1P7</t>
+  </si>
+  <si>
+    <t>2 - 6150 Kennedy Rd
+Mississauga, ON L5T 2J4</t>
+  </si>
+  <si>
+    <t>London, ON N5V 0B4</t>
+  </si>
+  <si>
+    <t>652 Wharncliffe Rd., S.
+London, ON N6J 2N4</t>
+  </si>
+  <si>
+    <t>18 - 5310 Finch Ave E
+Scarborough, ON M1S 5E8</t>
+  </si>
+  <si>
+    <t>1769 Britannia Rd E
+Units 1 &amp; 2
+Mississauga, ON L4W 4E2</t>
+  </si>
+  <si>
+    <t>2 - 275 Sheldon Dr
+Cambridge, ON N1T 1A3</t>
+  </si>
+  <si>
+    <t>2071 Lansdowne Street West
+Peterborough, ON K9J 0G5</t>
+  </si>
+  <si>
+    <t>10 Sparling Rd.
+St Thomas, ON N5P 4A6</t>
+  </si>
+  <si>
+    <t>572 Talbot St. E
+Aylmer, ON N5H 2W2</t>
+  </si>
+  <si>
+    <t>6715 Highway 38
+Verona, ON K0H 2W0</t>
+  </si>
+  <si>
+    <t>73 Wharncliffe Rd N
+London, ON N6H 2A5</t>
+  </si>
+  <si>
+    <t>150 Louisa Street
+Parry Sound, ON P2A 3C1</t>
+  </si>
+  <si>
+    <t>1931 Bruce Country Rd 10 RR 2
+Chesley, ON N0G 1L0</t>
+  </si>
+  <si>
+    <t>2001 Gore Rd
+London, ON N5V 5A9</t>
+  </si>
+  <si>
+    <t>13159 Heart Lake Rd.
+Inglewood, ON L7C 2K6</t>
+  </si>
+  <si>
+    <t>14 - 49 McIntyre Pl
+Kitchener, ON N2R 1G3</t>
+  </si>
+  <si>
+    <t>775 Gardiners Road
+Kingston, ON K7M 7H8</t>
+  </si>
+  <si>
+    <t>1600 Simcoe St N
+Oshawa, ON L1G 4X9</t>
+  </si>
+  <si>
+    <t>208 Helen Ave
+Unionville, ON L3R 1J8</t>
+  </si>
+  <si>
+    <t>P O Box 3
+Wallenstein, ON N0B 2S0</t>
+  </si>
+  <si>
+    <t>2-54 Beasley Dr
+Kitchener, ON N2E 1Y6</t>
+  </si>
+  <si>
+    <t>3376 White Oak Road, Unit 19
+London, ON N6E 2Z9</t>
+  </si>
+  <si>
     <t>https://www.ricksauto.ca/</t>
   </si>
   <si>
@@ -177,6 +446,87 @@
     <t>http://precisionautoelectric.ca/</t>
   </si>
   <si>
+    <t>http://activegreenross.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArtQuiggsService</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/st-catharines/profile/auto-electric-service/commercial-auto-electric-limited-0107-1257439/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://cywnow.com/</t>
+  </si>
+  <si>
+    <t>http://www.automotivesolutions.ca/</t>
+  </si>
+  <si>
+    <t>http://xemodex.com/</t>
+  </si>
+  <si>
+    <t>https://www.leavensvw.com/</t>
+  </si>
+  <si>
+    <t>https://www.probartmazda.com/</t>
+  </si>
+  <si>
+    <t>https://www.canadianautoelectric.com/</t>
+  </si>
+  <si>
+    <t>tel:905-670-8484</t>
+  </si>
+  <si>
+    <t>tel:519-621-2660</t>
+  </si>
+  <si>
+    <t>https://www.peterborough-mitsubishi.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/st-thomas/profile/tire-dealers/elgin-tirecraft-0187-1048984/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>https://www.aylmertire.com/</t>
+  </si>
+  <si>
+    <t>https://www.revellford.com/</t>
+  </si>
+  <si>
+    <t>https://www.vipautopro.ca/</t>
+  </si>
+  <si>
+    <t>https://www.georgianautomotive.com/location</t>
+  </si>
+  <si>
+    <t>http://bluewaterautoandtire.com/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/auto-repair/london-automotive-services-0187-1042798/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>tel:905-488-4400</t>
+  </si>
+  <si>
+    <t>http://highlandstarter.com/</t>
+  </si>
+  <si>
+    <t>http://www.pauletteauto.com/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/oshawa/profile/auto-electric-equipment/av-mobile-electronics-inc-0107-1153566/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://jcautosports.webs.com/</t>
+  </si>
+  <si>
+    <t>tel:519-669-1140</t>
+  </si>
+  <si>
+    <t>tel:519-748-5281</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/on/london/profile/auto-electric-service/johnnys-auto-electric-0187-711/email-this-business?email=primary</t>
+  </si>
+  <si>
     <t>15194211144</t>
   </si>
   <si>
@@ -210,6 +560,87 @@
     <t>19059858406</t>
   </si>
   <si>
+    <t>14167443444</t>
+  </si>
+  <si>
+    <t>15194535400</t>
+  </si>
+  <si>
+    <t>19056822635</t>
+  </si>
+  <si>
+    <t>17053313409</t>
+  </si>
+  <si>
+    <t>15196606627</t>
+  </si>
+  <si>
+    <t>19056704010</t>
+  </si>
+  <si>
+    <t>15194552580</t>
+  </si>
+  <si>
+    <t>15196491800</t>
+  </si>
+  <si>
+    <t>18882837483</t>
+  </si>
+  <si>
+    <t>19056708484</t>
+  </si>
+  <si>
+    <t>15196212660</t>
+  </si>
+  <si>
+    <t>17057485050</t>
+  </si>
+  <si>
+    <t>15196372382</t>
+  </si>
+  <si>
+    <t>15197733141</t>
+  </si>
+  <si>
+    <t>16133742133</t>
+  </si>
+  <si>
+    <t>15194330138</t>
+  </si>
+  <si>
+    <t>17057462007</t>
+  </si>
+  <si>
+    <t>15193632605</t>
+  </si>
+  <si>
+    <t>12262341187</t>
+  </si>
+  <si>
+    <t>19054884400</t>
+  </si>
+  <si>
+    <t>15198941608</t>
+  </si>
+  <si>
+    <t>16135079910</t>
+  </si>
+  <si>
+    <t>19052423587</t>
+  </si>
+  <si>
+    <t>14168189561</t>
+  </si>
+  <si>
+    <t>15196691140</t>
+  </si>
+  <si>
+    <t>15197485281</t>
+  </si>
+  <si>
+    <t>15196853630</t>
+  </si>
+  <si>
     <t>19/9/2007</t>
   </si>
   <si>
@@ -241,6 +672,84 @@
   </si>
   <si>
     <t>25/11/2007</t>
+  </si>
+  <si>
+    <t>19/1/2011</t>
+  </si>
+  <si>
+    <t>17/10/2006</t>
+  </si>
+  <si>
+    <t>23/10/2011</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>16/6/2005</t>
+  </si>
+  <si>
+    <t>11/4/2013</t>
+  </si>
+  <si>
+    <t>1/4/1985</t>
+  </si>
+  <si>
+    <t>17/8/1997</t>
+  </si>
+  <si>
+    <t>15/3/2011</t>
+  </si>
+  <si>
+    <t>27/6/2001</t>
+  </si>
+  <si>
+    <t>29/6/1995</t>
+  </si>
+  <si>
+    <t>22/10/2022</t>
+  </si>
+  <si>
+    <t>6/4/2010</t>
+  </si>
+  <si>
+    <t>15/5/2014</t>
+  </si>
+  <si>
+    <t>3/9/2009</t>
+  </si>
+  <si>
+    <t>7/6/2009</t>
+  </si>
+  <si>
+    <t>27/2/2018</t>
+  </si>
+  <si>
+    <t>2/1/2002</t>
+  </si>
+  <si>
+    <t>13/9/2004</t>
+  </si>
+  <si>
+    <t>7/9/2008</t>
+  </si>
+  <si>
+    <t>8/3/2000</t>
+  </si>
+  <si>
+    <t>6/5/2018</t>
+  </si>
+  <si>
+    <t>6/3/2007</t>
+  </si>
+  <si>
+    <t>25/1/2011</t>
+  </si>
+  <si>
+    <t>6/11/2000</t>
+  </si>
+  <si>
+    <t>26/8/1986</t>
   </si>
 </sst>
 </file>
@@ -611,7 +1120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,19 +1151,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -662,19 +1171,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -682,19 +1191,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,19 +1211,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,19 +1231,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -742,19 +1251,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -762,19 +1271,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -782,19 +1291,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -802,19 +1311,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -822,19 +1331,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -842,19 +1351,559 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -880,6 +1929,55 @@
     <hyperlink ref="D11" r:id="rId19"/>
     <hyperlink ref="A12" r:id="rId20"/>
     <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="A14" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="A15" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="A16" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="A18" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="A19" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="A20" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="A21" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="A22" r:id="rId40"/>
+    <hyperlink ref="A23" r:id="rId41"/>
+    <hyperlink ref="A24" r:id="rId42"/>
+    <hyperlink ref="D24" r:id="rId43"/>
+    <hyperlink ref="A25" r:id="rId44"/>
+    <hyperlink ref="D25" r:id="rId45"/>
+    <hyperlink ref="A26" r:id="rId46"/>
+    <hyperlink ref="D26" r:id="rId47"/>
+    <hyperlink ref="A27" r:id="rId48"/>
+    <hyperlink ref="D27" r:id="rId49"/>
+    <hyperlink ref="A28" r:id="rId50"/>
+    <hyperlink ref="D28" r:id="rId51"/>
+    <hyperlink ref="A29" r:id="rId52"/>
+    <hyperlink ref="D29" r:id="rId53"/>
+    <hyperlink ref="A30" r:id="rId54"/>
+    <hyperlink ref="D30" r:id="rId55"/>
+    <hyperlink ref="A31" r:id="rId56"/>
+    <hyperlink ref="D31" r:id="rId57"/>
+    <hyperlink ref="A32" r:id="rId58"/>
+    <hyperlink ref="A33" r:id="rId59"/>
+    <hyperlink ref="D33" r:id="rId60"/>
+    <hyperlink ref="A34" r:id="rId61"/>
+    <hyperlink ref="D34" r:id="rId62"/>
+    <hyperlink ref="A35" r:id="rId63"/>
+    <hyperlink ref="D35" r:id="rId64"/>
+    <hyperlink ref="A36" r:id="rId65"/>
+    <hyperlink ref="D36" r:id="rId66"/>
+    <hyperlink ref="A37" r:id="rId67"/>
+    <hyperlink ref="A38" r:id="rId68"/>
+    <hyperlink ref="A39" r:id="rId69"/>
+    <hyperlink ref="D39" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
